--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -44,7 +44,100 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Wednesday, 4 June, 2025 9:37 AM</t>
+    <t>CORDO PLUS SPRAY 60 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 2GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>154.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 4 June, 2025 9:43 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +347,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +359,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +767,301 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>21</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>25</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>21</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>29</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>32</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>33</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>12</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>36</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>37</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>12</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>36</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>40</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>344</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>42</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>43</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>44</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +1075,45 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -116,12 +116,24 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>جهاز ريد</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>4.00</t>
   </si>
   <si>
@@ -137,7 +149,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 4 June, 2025 9:43 AM</t>
+    <t>Wednesday, 4 June, 2025 9:44 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -976,24 +988,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1002,7 +1014,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1015,53 +1027,86 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>12</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>37</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>44</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>344</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>42</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
-        <v>43</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
-        <v>44</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>484</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>46</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>47</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>48</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1110,10 +1155,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -44,12 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t xml:space="preserve">BLOCK AND WHITE  CREAM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>139.00</t>
+  </si>
+  <si>
+    <t>139.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CORDO PLUS SPRAY 60 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -59,9 +74,6 @@
     <t>55.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>EPICEPHIN 2GM I.V. VIAL</t>
   </si>
   <si>
@@ -122,9 +134,6 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>140.00</t>
   </si>
   <si>
@@ -149,7 +158,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 4 June, 2025 9:44 AM</t>
+    <t>Wednesday, 4 June, 2025 9:45 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -823,13 +832,13 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
@@ -840,7 +849,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -849,20 +858,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -895,7 +904,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -903,10 +912,10 @@
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -915,31 +924,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -948,20 +957,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -972,7 +981,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -994,18 +1003,18 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1014,20 +1023,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1038,7 +1047,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1060,7 +1069,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1071,42 +1080,75 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>46</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>12</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>47</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>484</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>46</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
-        <v>47</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
-        <v>48</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>623</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>49</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>50</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>51</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1160,10 +1202,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -158,7 +158,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 4 June, 2025 9:45 AM</t>
+    <t>Wednesday, 4 June, 2025 9:46 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -62,18 +62,39 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CORDO PLUS SPRAY 60 ML</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>55.00</t>
   </si>
   <si>
     <t>55.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>EPICEPHIN 2GM I.V. VIAL</t>
   </si>
   <si>
@@ -98,15 +119,21 @@
     <t>17.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
   </si>
   <si>
     <t>110.00</t>
   </si>
   <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>FUSI 2% OINT. 15 GM</t>
   </si>
   <si>
@@ -122,12 +149,6 @@
     <t>1:1</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>جهاز ريد</t>
   </si>
   <si>
@@ -155,10 +176,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 4 June, 2025 9:46 AM</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 4 June, 2025 10:19 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -832,7 +853,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -849,7 +870,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -858,14 +879,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -882,7 +903,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -891,14 +912,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -908,14 +929,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -924,7 +945,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -941,14 +962,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -957,14 +978,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -974,14 +995,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -990,14 +1011,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1011,10 +1032,10 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1023,31 +1044,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1056,31 +1077,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1089,66 +1110,165 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>46</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>47</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>48</v>
       </c>
-      <c t="s" r="Q16" s="12">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>623</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>49</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>50</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>12</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>51</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>53</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>12</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>54</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>690.38</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>56</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>57</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>58</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1207,10 +1327,25 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -143,12 +143,21 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>جهاز ريد</t>
   </si>
   <si>
@@ -179,7 +188,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Wednesday, 4 June, 2025 10:19 AM</t>
+    <t>Wednesday, 4 June, 2025 10:20 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1127,11 +1136,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1143,31 +1152,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1176,14 +1185,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1200,7 +1209,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1237,38 +1246,71 @@
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>690.38</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>56</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>57</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>58</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c t="s" r="Q20" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>769.58000000000004</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>59</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>60</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>61</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1342,10 +1384,15 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -188,7 +188,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Wednesday, 4 June, 2025 10:20 AM</t>
+    <t>Wednesday, 4 June, 2025 10:21 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -170,6 +170,15 @@
     <t>140.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -188,7 +197,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Wednesday, 4 June, 2025 10:21 AM</t>
+    <t>Wednesday, 4 June, 2025 10:22 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1242,7 +1251,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1279,38 +1288,71 @@
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>769.58000000000004</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>59</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>12</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>60</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>61</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c t="s" r="Q21" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>772.58000000000004</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>62</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>63</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>64</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1389,10 +1431,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -197,7 +197,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Wednesday, 4 June, 2025 10:22 AM</t>
+    <t>Wednesday, 4 June, 2025 10:33 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -143,6 +143,24 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>HEPTA PANTHENOL HAIR CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>149.00</t>
+  </si>
+  <si>
+    <t>149.0000</t>
+  </si>
+  <si>
+    <t>HEPTA PANTHENOL PLUS CARBAMIDE 50MG CREAM</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
@@ -197,7 +215,7 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Wednesday, 4 June, 2025 10:33 AM</t>
+    <t>Wednesday, 4 June, 2025 10:35 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1135,7 +1153,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1145,14 +1163,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1161,31 +1179,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1194,31 +1212,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1227,31 +1245,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1260,14 +1278,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1284,7 +1302,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1317,42 +1335,108 @@
         <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>62</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>12</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>63</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>32</v>
       </c>
     </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>772.58000000000004</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>62</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
-        <v>63</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
-        <v>64</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>65</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>12</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>66</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>1010.58</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>68</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>69</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>70</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1436,10 +1520,20 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -212,10 +212,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 4 June, 2025 10:35 AM</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 4 June, 2025 11:05 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1401,12 +1401,12 @@
         <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
       <c r="P24" s="13">
-        <v>1010.58</v>
+        <v>1012.58</v>
       </c>
       <c r="Q24" s="13"/>
     </row>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -95,6 +95,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEPAKINE 57.64MG/ML SYP. 125 ML</t>
+  </si>
+  <si>
+    <t>36.50</t>
+  </si>
+  <si>
+    <t>36.5000</t>
+  </si>
+  <si>
     <t>EPICEPHIN 2GM I.V. VIAL</t>
   </si>
   <si>
@@ -215,7 +224,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Wednesday, 4 June, 2025 11:05 AM</t>
+    <t>Wednesday, 4 June, 2025 11:06 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -988,7 +997,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -998,14 +1007,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1014,7 +1023,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1031,14 +1040,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1054,7 +1063,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1068,7 +1077,7 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1080,14 +1089,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1097,11 +1106,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1120,7 +1129,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1137,7 +1146,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1153,7 +1162,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1192,7 +1201,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1219,24 +1228,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1245,14 +1254,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1262,11 +1271,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1278,31 +1287,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1311,14 +1320,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1368,7 +1377,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1401,42 +1410,75 @@
         <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>1012.58</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>68</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>12</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>69</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>70</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c t="s" r="Q24" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>1049.0799999999999</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>71</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>72</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>73</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1530,10 +1572,15 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -224,7 +224,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Wednesday, 4 June, 2025 11:06 AM</t>
+    <t>Wednesday, 4 June, 2025 11:14 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">BLOCK AND WHITE  CREAM</t>
   </si>
   <si>
@@ -59,15 +77,9 @@
     <t>139.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -146,12 +158,6 @@
     <t>FUSI 2% OINT. 15 GM</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>HEPTA PANTHENOL HAIR CREAM 100 GM</t>
   </si>
   <si>
@@ -224,7 +230,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Wednesday, 4 June, 2025 11:14 AM</t>
+    <t>Wednesday, 4 June, 2025 12:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -898,24 +904,24 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -931,13 +937,13 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -948,7 +954,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -957,31 +963,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -990,31 +996,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1023,20 +1029,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1047,7 +1053,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1056,20 +1062,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1080,7 +1086,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1089,31 +1095,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1122,31 +1128,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1155,31 +1161,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1188,28 +1194,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1221,14 +1227,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1238,11 +1244,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1254,31 +1260,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1287,31 +1293,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1320,14 +1326,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1337,14 +1343,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1353,28 +1359,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1386,31 +1392,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1419,66 +1425,99 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>70</v>
       </c>
-      <c t="s" r="Q24" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>1049.0799999999999</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>18</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>19</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>71</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>72</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c t="s" r="Q25" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1084.0799999999999</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
         <v>73</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>74</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>75</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1577,10 +1616,15 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -230,7 +230,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Wednesday, 4 June, 2025 12:26 PM</t>
+    <t>Wednesday, 4 June, 2025 12:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -116,6 +116,30 @@
     <t>36.5000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>EPICEPHIN 2GM I.V. VIAL</t>
   </si>
   <si>
@@ -131,15 +155,21 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
     <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
   </si>
   <si>
@@ -227,10 +257,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 4 June, 2025 12:48 PM</t>
+    <t>Wednesday, 4 June, 2025 12:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1086,7 +1113,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1095,14 +1122,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1119,7 +1146,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1135,7 +1162,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1145,14 +1172,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1161,14 +1188,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1178,11 +1205,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
@@ -1194,14 +1221,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1211,14 +1238,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1227,14 +1254,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1244,14 +1271,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1260,7 +1287,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1273,18 +1300,18 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1293,14 +1320,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1310,14 +1337,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1333,7 +1360,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1343,14 +1370,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1359,14 +1386,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1376,11 +1403,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1392,31 +1419,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1425,31 +1452,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1465,7 +1492,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1475,49 +1502,148 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1084.0799999999999</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
-        <v>73</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>74</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>18</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>19</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
         <v>75</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>77</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>18</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>19</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>78</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>80</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>18</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>19</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>81</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1153.9100000000001</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>82</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>83</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>84</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1621,10 +1747,25 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -47,7 +47,7 @@
     <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
   </si>
   <si>
-    <t>4:1</t>
+    <t>5:0</t>
   </si>
   <si>
     <t>1</t>
@@ -56,138 +56,141 @@
     <t>35.00</t>
   </si>
   <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOCK AND WHITE  CREAM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>139.00</t>
+  </si>
+  <si>
+    <t>139.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CORDO PLUS SPRAY 60 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEPAKINE 57.64MG/ML SYP. 125 ML</t>
+  </si>
+  <si>
+    <t>36.50</t>
+  </si>
+  <si>
+    <t>36.5000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 2GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>154.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOCK AND WHITE  CREAM</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>139.00</t>
-  </si>
-  <si>
-    <t>139.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>CORDO PLUS SPRAY 60 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEPAKINE 57.64MG/ML SYP. 125 ML</t>
-  </si>
-  <si>
-    <t>36.50</t>
-  </si>
-  <si>
-    <t>36.5000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEVAROL-S 200000 I.U AMPOULE</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 2GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>77.00</t>
-  </si>
-  <si>
-    <t>154.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
     <t>HEPTA PANTHENOL HAIR CREAM 100 GM</t>
   </si>
   <si>
@@ -257,7 +260,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>Wednesday, 4 June, 2025 12:55 PM</t>
+    <t>Wednesday, 4 June, 2025 12:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -948,7 +951,7 @@
         <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -957,14 +960,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -974,14 +977,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1014,7 +1017,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1040,14 +1043,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1080,7 +1083,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1113,7 +1116,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1146,7 +1149,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1212,7 +1215,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1245,7 +1248,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1261,7 +1264,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1278,7 +1281,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1311,7 +1314,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1341,10 +1344,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1353,7 +1356,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1370,14 +1373,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1386,7 +1389,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1403,14 +1406,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1419,14 +1422,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1436,14 +1439,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1452,14 +1455,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1469,14 +1472,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1485,14 +1488,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1502,14 +1505,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1518,7 +1521,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1535,14 +1538,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1551,7 +1554,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1568,11 +1571,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>47</v>
@@ -1584,7 +1587,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1601,11 +1604,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>40</v>
@@ -1613,13 +1616,13 @@
     </row>
     <row r="29" ht="25.5" customHeight="1">
       <c r="P29" s="13">
-        <v>1153.9100000000001</v>
+        <v>1125.9100000000001</v>
       </c>
       <c r="Q29" s="13"/>
     </row>
     <row r="30" ht="16.5" customHeight="1">
       <c t="s" r="A30" s="14">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -1627,13 +1630,13 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c t="s" r="G30" s="15">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="16"/>
       <c t="s" r="K30" s="17">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
   </si>
   <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -158,9 +173,6 @@
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -260,7 +272,19 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>Wednesday, 4 June, 2025 12:58 PM</t>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>معجون اسنان المسوك الصغير</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 4 June, 2025 1:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -940,18 +964,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>21</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -960,31 +984,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -993,14 +1017,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1010,14 +1034,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1026,14 +1050,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1043,14 +1067,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1059,14 +1083,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1076,14 +1100,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1092,14 +1116,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1109,14 +1133,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1125,14 +1149,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1142,14 +1166,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1158,14 +1182,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1175,14 +1199,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1215,7 +1239,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1224,14 +1248,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1241,14 +1265,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1257,14 +1281,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1274,14 +1298,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1290,14 +1314,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1307,14 +1331,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1323,14 +1347,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1340,14 +1364,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1356,14 +1380,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1373,14 +1397,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1389,31 +1413,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1422,20 +1446,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1446,7 +1470,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1462,7 +1486,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1472,14 +1496,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1488,31 +1512,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1528,24 +1552,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1554,31 +1578,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1587,66 +1611,132 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1125.9100000000001</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>83</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>84</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>85</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>23</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>24</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>86</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>88</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>27</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>24</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>89</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1175.6700000000001</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>91</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>92</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>93</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1765,10 +1855,20 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -236,6 +248,15 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
+    <t>ترمومتر ديجتال</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>جهاز ريد</t>
   </si>
   <si>
@@ -254,7 +275,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سرنجات 10 سم</t>
@@ -272,7 +293,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
   </si>
   <si>
     <t>معجون اسنان المسوك الصغير</t>
@@ -284,7 +308,7 @@
     <t>22.0000</t>
   </si>
   <si>
-    <t>Wednesday, 4 June, 2025 1:01 PM</t>
+    <t>Wednesday, 4 June, 2025 1:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1024,7 +1048,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1034,14 +1058,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1050,14 +1074,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1067,14 +1091,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1083,14 +1107,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1100,14 +1124,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1116,14 +1140,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1133,14 +1157,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1149,14 +1173,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1173,7 +1197,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1206,7 +1230,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1239,7 +1263,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1248,14 +1272,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1272,7 +1296,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1281,14 +1305,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1298,11 +1322,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1314,14 +1338,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1331,11 +1355,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1347,14 +1371,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1364,11 +1388,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1380,14 +1404,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1397,14 +1421,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1413,14 +1437,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1430,11 +1454,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>27</v>
@@ -1446,7 +1470,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1459,15 +1483,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>27</v>
@@ -1479,20 +1503,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1503,7 +1527,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1519,7 +1543,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1529,11 +1553,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1545,31 +1569,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1585,7 +1609,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1618,7 +1642,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1628,14 +1652,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1644,7 +1668,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1661,14 +1685,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1677,14 +1701,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1694,49 +1718,115 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>92</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>23</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>24</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>93</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>96</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1175.6700000000001</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>91</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>92</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
-        <v>93</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>24</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>97</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1272.27</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>99</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>100</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>101</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1865,10 +1955,20 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 12:06 AM</t>
+    <t>Thursday, 5 June, 2025 12:07 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 12:07 AM</t>
+    <t>Thursday, 5 June, 2025 12:12 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 12:12 AM</t>
+    <t>Thursday, 5 June, 2025 12:14 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 12:14 AM</t>
+    <t>Thursday, 5 June, 2025 12:17 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 12:17 AM</t>
+    <t>Thursday, 5 June, 2025 12:19 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 12:19 AM</t>
+    <t>Thursday, 5 June, 2025 12:20 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-04_00-00.xlsx
+++ b/DaySale_2025-06-04_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 5 June, 2025 12:20 AM</t>
+    <t>Thursday, 5 June, 2025 12:21 AM</t>
   </si>
   <si>
     <t>1/1</t>
